--- a/Results_V1.xlsx
+++ b/Results_V1.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adnan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adnan/Desktop/All Folders/Data Science/Masters in DataScience/Projects/Sythetic Data Generator/Synthetic Data Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78AB2274-E6CB-8240-8421-5A011361B7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECF9082-D1D8-7D41-B606-61118A4F35E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{DF99D2F5-413D-2C43-B6DC-33AE86B4A369}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16360" activeTab="2" xr2:uid="{DF99D2F5-413D-2C43-B6DC-33AE86B4A369}"/>
   </bookViews>
   <sheets>
     <sheet name="GAN-VAE-LGBM" sheetId="1" r:id="rId1"/>
     <sheet name="Final" sheetId="2" r:id="rId2"/>
+    <sheet name="Correlation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -184,11 +185,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,6 +1010,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B46BFF0-71F0-FD3C-7024-797C2737D713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7772400" cy="2562639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B60181-8A43-F1BC-C42F-95DEBBCB288C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2844800"/>
+          <a:ext cx="7772400" cy="2521795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>86452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F1D0D5-08EC-0679-E724-7C6036E189A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5689600"/>
+          <a:ext cx="7772400" cy="2524852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1420,31 +1558,31 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H5" s="6"/>
@@ -1597,31 +1735,31 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8" t="s">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H30" s="6"/>
@@ -1774,31 +1912,31 @@
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
       <c r="G54" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8" t="s">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H55" s="6"/>
@@ -1886,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A67E26-1271-6E4B-86D2-CCA8C12E876A}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1896,22 +2034,22 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1922,16 +2060,16 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>0.61</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="8">
         <v>0.59</v>
       </c>
     </row>
@@ -1944,16 +2082,16 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="8">
         <v>0.75</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I71" s="8">
         <v>0.62</v>
       </c>
     </row>
@@ -1961,4 +2099,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1BDA25-7F1E-5040-8CC7-A9BA5EC94063}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>